--- a/raw_data/20200818_saline/20200818_Sensor2_Test_17.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_17.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBBE9B1-4785-4DA6-9F27-9301088E801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>14774.741876</v>
       </c>
@@ -481,315 +897,315 @@
         <v>4.104095</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.380000</v>
+        <v>1244.3800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.402000</v>
+        <v>-308.40199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>14784.810661</v>
       </c>
       <c r="G2" s="1">
-        <v>4.106892</v>
+        <v>4.1068920000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.721000</v>
+        <v>-265.721</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>14795.274759</v>
       </c>
       <c r="L2" s="1">
-        <v>4.109799</v>
+        <v>4.1097989999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.230000</v>
+        <v>1304.23</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.728000</v>
+        <v>-202.72800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>14805.807833</v>
+        <v>14805.807833000001</v>
       </c>
       <c r="Q2" s="1">
         <v>4.112724</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.415000</v>
+        <v>-184.41499999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>14816.363660</v>
+        <v>14816.363660000001</v>
       </c>
       <c r="V2" s="1">
-        <v>4.115657</v>
+        <v>4.1156569999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.240000</v>
+        <v>1328.24</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.844000</v>
+        <v>-170.84399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>14827.132315</v>
+        <v>14827.132315000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.118648</v>
+        <v>4.1186480000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1344.990000</v>
+        <v>1344.99</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.907000</v>
+        <v>-168.90700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>14837.625679</v>
+        <v>14837.625679000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.121563</v>
+        <v>4.1215630000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1357.740000</v>
+        <v>1357.74</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.687000</v>
+        <v>-178.68700000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>14848.288657</v>
+        <v>14848.288656999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.124525</v>
+        <v>4.1245250000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1378.210000</v>
+        <v>1378.21</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.071000</v>
+        <v>-209.071</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>14858.841043</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.127456</v>
+        <v>4.1274559999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1399.780000</v>
+        <v>1399.78</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.205000</v>
+        <v>-253.20500000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>14869.844293</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.130512</v>
+        <v>4.1305120000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.645000</v>
+        <v>-313.64499999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>14880.945750</v>
+        <v>14880.945750000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.133596</v>
+        <v>4.1335959999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1443.490000</v>
+        <v>1443.49</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.093000</v>
+        <v>-366.09300000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>14891.944536</v>
+        <v>14891.944536000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.136651</v>
+        <v>4.1366509999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG2" s="1">
-        <v>-616.048000</v>
+        <v>-616.048</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>14902.692346</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.139637</v>
+        <v>4.1396369999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.130000</v>
+        <v>1683.13</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1064.430000</v>
+        <v>-1064.43</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>14913.455531</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.142627</v>
+        <v>4.1426270000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.400000</v>
+        <v>1978.4</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1842.020000</v>
+        <v>-1842.02</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>14923.778765</v>
+        <v>14923.778764999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.145494</v>
+        <v>4.1454940000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2368.470000</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2738.350000</v>
+        <v>-2738.35</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>14934.567249</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.148491</v>
+        <v>4.1484909999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2855.100000</v>
+        <v>2855.1</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3721.750000</v>
+        <v>-3721.75</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>14946.248528</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.151736</v>
+        <v>4.1517359999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>4293.060000</v>
+        <v>4293.0600000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6097.560000</v>
+        <v>-6097.56</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>14775.107955</v>
+        <v>14775.107954999999</v>
       </c>
       <c r="B3" s="1">
-        <v>4.104197</v>
+        <v>4.1041970000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.651000</v>
+        <v>-308.65100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>14785.178724</v>
+        <v>14785.178723999999</v>
       </c>
       <c r="G3" s="1">
-        <v>4.106994</v>
+        <v>4.1069940000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.410000</v>
+        <v>1269.4100000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.731000</v>
+        <v>-265.73099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>14795.662668</v>
+        <v>14795.662668000001</v>
       </c>
       <c r="L3" s="1">
-        <v>4.109906</v>
+        <v>4.1099059999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.390000</v>
+        <v>1304.3900000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.320000</v>
+        <v>-202.32</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>14806.179801</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.112828</v>
+        <v>4.1128280000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.420000</v>
+        <v>1315.42</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.403000</v>
+        <v>-184.40299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>14817.080875</v>
@@ -798,103 +1214,103 @@
         <v>4.115856</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.150000</v>
+        <v>1328.15</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.810000</v>
+        <v>-170.81</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>14827.476558</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.118743</v>
+        <v>4.1187430000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>1344.720000</v>
+        <v>1344.72</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.815000</v>
+        <v>-168.815</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>14838.007087</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.121669</v>
+        <v>4.1216689999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1357.690000</v>
+        <v>1357.69</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.798000</v>
+        <v>-178.798</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>14848.648785</v>
+        <v>14848.648784999999</v>
       </c>
       <c r="AK3" s="1">
         <v>4.124625</v>
       </c>
       <c r="AL3" s="1">
-        <v>1378.210000</v>
+        <v>1378.21</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.023000</v>
+        <v>-209.023</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>14859.523538</v>
+        <v>14859.523537999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.127645</v>
+        <v>4.1276450000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1399.770000</v>
+        <v>1399.77</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.229000</v>
+        <v>-253.22900000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>14870.521332</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.130700</v>
+        <v>4.1307</v>
       </c>
       <c r="AV3" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.603000</v>
+        <v>-313.60300000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>14881.379751</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.133717</v>
+        <v>4.1337169999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1443.520000</v>
+        <v>1443.52</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.052000</v>
+        <v>-366.05200000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>14892.363159</v>
@@ -903,709 +1319,709 @@
         <v>4.136768</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG3" s="1">
-        <v>-616.030000</v>
+        <v>-616.03</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>14903.069832</v>
+        <v>14903.069831999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>4.139742</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.130000</v>
+        <v>1683.13</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1064.450000</v>
+        <v>-1064.45</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>14913.858284</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.142738</v>
+        <v>4.1427379999999996</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.130000</v>
+        <v>1978.13</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1842.160000</v>
+        <v>-1842.16</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>14924.277773</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.145633</v>
+        <v>4.1456330000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.630000</v>
+        <v>2367.63</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2738.290000</v>
+        <v>-2738.29</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>14935.031999</v>
+        <v>14935.031999000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.148620</v>
+        <v>4.1486200000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.070000</v>
+        <v>2855.07</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3721.900000</v>
+        <v>-3721.9</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>14946.537236</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.151816</v>
+        <v>4.1518160000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>4305.050000</v>
+        <v>4305.05</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6084.630000</v>
+        <v>-6084.63</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>14775.454626</v>
+        <v>14775.454626000001</v>
       </c>
       <c r="B4" s="1">
-        <v>4.104293</v>
+        <v>4.1042930000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.145000</v>
+        <v>-308.14499999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>14785.522452</v>
+        <v>14785.522451999999</v>
       </c>
       <c r="G4" s="1">
-        <v>4.107090</v>
+        <v>4.1070900000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.591000</v>
+        <v>-266.59100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>14796.350582</v>
+        <v>14796.350581999999</v>
       </c>
       <c r="L4" s="1">
-        <v>4.110097</v>
+        <v>4.1100969999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1303.960000</v>
+        <v>1303.96</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.504000</v>
+        <v>-202.50399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>14806.876680</v>
+        <v>14806.876679999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.113021</v>
+        <v>4.1130209999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.500000</v>
+        <v>1315.5</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.328000</v>
+        <v>-184.328</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>14817.420666</v>
       </c>
       <c r="V4" s="1">
-        <v>4.115950</v>
+        <v>4.1159499999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.220000</v>
+        <v>1328.22</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.786000</v>
+        <v>-170.786</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>14827.821245</v>
+        <v>14827.821244999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.118839</v>
+        <v>4.1188390000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>1345.000000</v>
+        <v>1345</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.751000</v>
+        <v>-168.751</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>14838.348334</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.121763</v>
+        <v>4.1217629999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>1357.690000</v>
+        <v>1357.69</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.756000</v>
+        <v>-178.756</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>14849.315909</v>
+        <v>14849.315909000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.124810</v>
+        <v>4.1248100000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1378.220000</v>
+        <v>1378.22</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.044000</v>
+        <v>-209.04400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>14859.943650</v>
+        <v>14859.943649999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.127762</v>
+        <v>4.1277619999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1399.780000</v>
+        <v>1399.78</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.209000</v>
+        <v>-253.209</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>14870.941443</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.130817</v>
+        <v>4.1308170000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.606000</v>
+        <v>-313.60599999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>14881.738886</v>
+        <v>14881.738885999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.133816</v>
+        <v>4.1338160000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>1443.510000</v>
+        <v>1443.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.013000</v>
+        <v>-366.01299999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>14892.721307</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.136867</v>
+        <v>4.1368669999999996</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG4" s="1">
-        <v>-615.996000</v>
+        <v>-615.99599999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>14903.443784</v>
+        <v>14903.443783999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.139845</v>
+        <v>4.1398450000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.030000</v>
+        <v>1683.03</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1064.440000</v>
+        <v>-1064.44</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>14914.282362</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.142856</v>
+        <v>4.1428560000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.040000</v>
+        <v>1978.04</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1842.210000</v>
+        <v>-1842.21</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>14924.768317</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.145769</v>
+        <v>4.1457689999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.890000</v>
+        <v>2366.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2738.500000</v>
+        <v>-2738.5</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>14935.477903</v>
+        <v>14935.477903000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.148744</v>
+        <v>4.1487439999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2855.030000</v>
+        <v>2855.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3722.050000</v>
+        <v>-3722.05</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>14947.054563</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.151960</v>
+        <v>4.1519599999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4291.960000</v>
+        <v>4291.96</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6075.470000</v>
+        <v>-6075.47</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>14775.795874</v>
+        <v>14775.795873999999</v>
       </c>
       <c r="B5" s="1">
-        <v>4.104388</v>
+        <v>4.1043880000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.380000</v>
+        <v>1244.3800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.992000</v>
+        <v>-307.99200000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>14786.209877</v>
+        <v>14786.209876999999</v>
       </c>
       <c r="G5" s="1">
-        <v>4.107281</v>
+        <v>4.1072810000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.325000</v>
+        <v>-265.32499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>14796.695798</v>
+        <v>14796.695798000001</v>
       </c>
       <c r="L5" s="1">
-        <v>4.110193</v>
+        <v>4.1101929999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1303.940000</v>
+        <v>1303.94</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.618000</v>
+        <v>-202.61799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>14807.227352</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.113119</v>
+        <v>4.1131190000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.530000</v>
+        <v>1315.53</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.324000</v>
+        <v>-184.32400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>14817.766843</v>
+        <v>14817.766842999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.116046</v>
+        <v>4.1160459999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.240000</v>
+        <v>1328.24</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.923000</v>
+        <v>-170.923</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>14828.472987</v>
+        <v>14828.472986999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.119020</v>
+        <v>4.1190199999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1345.020000</v>
+        <v>1345.02</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.876000</v>
+        <v>-168.876</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>14838.990655</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.121942</v>
+        <v>4.1219419999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1357.690000</v>
+        <v>1357.69</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.730000</v>
+        <v>-178.73</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>14849.693327</v>
+        <v>14849.693327000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.124915</v>
+        <v>4.1249149999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>1378.210000</v>
+        <v>1378.21</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.051000</v>
+        <v>-209.05099999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>14860.324577</v>
+        <v>14860.324576999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.127868</v>
+        <v>4.1278680000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1399.740000</v>
+        <v>1399.74</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.238000</v>
+        <v>-253.238</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>14871.332788</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.130926</v>
+        <v>4.1309259999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>1424.250000</v>
+        <v>1424.25</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.600000</v>
+        <v>-313.60000000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>14882.099445</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.133917</v>
+        <v>4.1339170000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1443.500000</v>
+        <v>1443.5</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.041000</v>
+        <v>-366.041</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>14893.142375</v>
+        <v>14893.142374999999</v>
       </c>
       <c r="BE5" s="1">
         <v>4.136984</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.730000</v>
+        <v>1528.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-615.986000</v>
+        <v>-615.98599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>14903.865880</v>
+        <v>14903.865879999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.139963</v>
+        <v>4.1399629999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.030000</v>
+        <v>1683.03</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1064.450000</v>
+        <v>-1064.45</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>14914.674707</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.142965</v>
+        <v>4.1429650000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.000000</v>
+        <v>1978</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1842.160000</v>
+        <v>-1842.16</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>14925.134828</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.145871</v>
+        <v>4.1458709999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.260000</v>
+        <v>2366.2600000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2738.560000</v>
+        <v>-2738.56</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>14935.908927</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.148864</v>
+        <v>4.1488639999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2854.860000</v>
+        <v>2854.86</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3721.460000</v>
+        <v>-3721.46</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>14947.575822</v>
+        <v>14947.575822000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.152104</v>
+        <v>4.1521039999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>4284.680000</v>
+        <v>4284.68</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6088.570000</v>
+        <v>-6088.57</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>14776.481344</v>
       </c>
       <c r="B6" s="1">
-        <v>4.104578</v>
+        <v>4.1045780000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.295000</v>
+        <v>-308.29500000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>14786.555619</v>
+        <v>14786.555619000001</v>
       </c>
       <c r="G6" s="1">
-        <v>4.107377</v>
+        <v>4.1073769999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.750000</v>
+        <v>1268.75</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.259000</v>
+        <v>-266.25900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>14797.045013</v>
+        <v>14797.045013000001</v>
       </c>
       <c r="L6" s="1">
-        <v>4.110290</v>
+        <v>4.11029</v>
       </c>
       <c r="M6" s="1">
-        <v>1303.950000</v>
+        <v>1303.95</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.827000</v>
+        <v>-202.827</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>14807.576039</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.113216</v>
+        <v>4.1132160000000004</v>
       </c>
       <c r="R6" s="1">
-        <v>1315.550000</v>
+        <v>1315.55</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.362000</v>
+        <v>-184.36199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>14818.423081</v>
+        <v>14818.423081000001</v>
       </c>
       <c r="V6" s="1">
-        <v>4.116229</v>
+        <v>4.1162289999999997</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.100000</v>
+        <v>1328.1</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.823000</v>
+        <v>-170.82300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>14828.866843</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.119130</v>
+        <v>4.1191300000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1344.920000</v>
+        <v>1344.92</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.907000</v>
+        <v>-168.90700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>14839.377533</v>
+        <v>14839.377533000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.122049</v>
+        <v>4.1220489999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>1357.700000</v>
+        <v>1357.7</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.767000</v>
+        <v>-178.767</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>14850.047471</v>
@@ -1614,814 +2030,814 @@
         <v>4.125013</v>
       </c>
       <c r="AL6" s="1">
-        <v>1378.180000</v>
+        <v>1378.18</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.090000</v>
+        <v>-209.09</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>14860.685169</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.127968</v>
+        <v>4.1279680000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1399.740000</v>
+        <v>1399.74</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.227000</v>
+        <v>-253.227</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>14871.694407</v>
+        <v>14871.694407000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.131026</v>
+        <v>4.1310260000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.610000</v>
+        <v>-313.61</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>14882.516613</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.134032</v>
+        <v>4.1340320000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1443.500000</v>
+        <v>1443.5</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.038000</v>
+        <v>-366.03800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>14893.445430</v>
+        <v>14893.44543</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.137068</v>
+        <v>4.1370680000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG6" s="1">
-        <v>-615.944000</v>
+        <v>-615.94399999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>14904.224519</v>
+        <v>14904.224518999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.140062</v>
+        <v>4.1400620000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.070000</v>
+        <v>1683.07</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1064.380000</v>
+        <v>-1064.3800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>14915.095834</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.143082</v>
+        <v>4.1430819999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.040000</v>
+        <v>1978.04</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1842.150000</v>
+        <v>-1842.15</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>14925.549980</v>
+        <v>14925.54998</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.145986</v>
+        <v>4.1459859999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.910000</v>
+        <v>2365.91</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2739.220000</v>
+        <v>-2739.22</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>14936.332013</v>
+        <v>14936.332012999999</v>
       </c>
       <c r="BY6" s="1">
         <v>4.148981</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2854.290000</v>
+        <v>2854.29</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3721.780000</v>
+        <v>-3721.78</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>14948.092655</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.152248</v>
+        <v>4.1522480000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>4281.080000</v>
+        <v>4281.08</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6081.550000</v>
+        <v>-6081.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>14776.817137</v>
       </c>
       <c r="B7" s="1">
-        <v>4.104671</v>
+        <v>4.1046709999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.180000</v>
+        <v>1244.18</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.384000</v>
+        <v>-308.38400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>14786.903817</v>
       </c>
       <c r="G7" s="1">
-        <v>4.107473</v>
+        <v>4.1074729999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.590000</v>
+        <v>1268.5899999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.601000</v>
+        <v>-265.601</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>14797.703668</v>
       </c>
       <c r="L7" s="1">
-        <v>4.110473</v>
+        <v>4.1104729999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.717000</v>
+        <v>-202.71700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>14808.222824</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.113395</v>
+        <v>4.1133949999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.400000</v>
+        <v>1315.4</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.439000</v>
+        <v>-184.43899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>14818.802488</v>
+        <v>14818.802487999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.116334</v>
+        <v>4.1163340000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.090000</v>
+        <v>1328.09</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.868000</v>
+        <v>-170.86799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>14829.218010</v>
+        <v>14829.218010000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.119227</v>
+        <v>4.1192270000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1345.080000</v>
+        <v>1345.08</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.804000</v>
+        <v>-168.804</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>14839.721261</v>
+        <v>14839.721261000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.122145</v>
+        <v>4.1221449999999997</v>
       </c>
       <c r="AG7" s="1">
-        <v>1357.720000</v>
+        <v>1357.72</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.820000</v>
+        <v>-178.82</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>14850.390703</v>
+        <v>14850.390702999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.125109</v>
+        <v>4.1251090000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1378.180000</v>
+        <v>1378.18</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.040000</v>
+        <v>-209.04</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>14861.115200</v>
+        <v>14861.1152</v>
       </c>
       <c r="AP7" s="1">
         <v>4.128088</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1399.790000</v>
+        <v>1399.79</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.206000</v>
+        <v>-253.20599999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>14872.126387</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.131146</v>
+        <v>4.1311460000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1424.190000</v>
+        <v>1424.19</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.628000</v>
+        <v>-313.62799999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>14882.817155</v>
+        <v>14882.817155000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.134116</v>
+        <v>4.1341159999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1443.490000</v>
+        <v>1443.49</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.998000</v>
+        <v>-365.99799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>14893.805062</v>
+        <v>14893.805061999999</v>
       </c>
       <c r="BE7" s="1">
         <v>4.137168</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG7" s="1">
-        <v>-616.040000</v>
+        <v>-616.04</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>14904.598999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.140166</v>
+        <v>4.1401659999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.070000</v>
+        <v>1683.07</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1064.510000</v>
+        <v>-1064.51</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>14915.505001</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.143196</v>
+        <v>4.1431959999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.980000</v>
+        <v>1977.98</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1842.070000</v>
+        <v>-1842.07</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>14925.984476</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.146107</v>
+        <v>4.1461069999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>2365.180000</v>
+        <v>2365.1799999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2739.500000</v>
+        <v>-2739.5</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>14936.755100</v>
+        <v>14936.7551</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.149099</v>
+        <v>4.1490989999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2854.590000</v>
+        <v>2854.59</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3722.030000</v>
+        <v>-3722.03</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>14948.645196</v>
+        <v>14948.645195999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.152401</v>
+        <v>4.1524010000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4291.420000</v>
+        <v>4291.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6076.630000</v>
+        <v>-6076.63</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>14777.168304</v>
+        <v>14777.168304000001</v>
       </c>
       <c r="B8" s="1">
-        <v>4.104769</v>
+        <v>4.1047690000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.390000</v>
+        <v>1244.3900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.132000</v>
+        <v>-308.13200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>14787.554070</v>
+        <v>14787.55407</v>
       </c>
       <c r="G8" s="1">
-        <v>4.107654</v>
+        <v>4.1076540000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.380000</v>
+        <v>1269.3800000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.823000</v>
+        <v>-265.82299999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>14798.082337</v>
       </c>
       <c r="L8" s="1">
-        <v>4.110578</v>
+        <v>4.1105780000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.759000</v>
+        <v>-202.75899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>14808.619163</v>
+        <v>14808.619162999999</v>
       </c>
       <c r="Q8" s="1">
         <v>4.113505</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.410000</v>
+        <v>1315.41</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.337000</v>
+        <v>-184.33699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>14819.149725</v>
+        <v>14819.149724999999</v>
       </c>
       <c r="V8" s="1">
-        <v>4.116430</v>
+        <v>4.1164300000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.200000</v>
+        <v>1328.2</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.667000</v>
+        <v>-170.667</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>14829.567658</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.119324</v>
+        <v>4.1193239999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1344.970000</v>
+        <v>1344.97</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.873000</v>
+        <v>-168.87299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>14840.065980</v>
+        <v>14840.065979999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.122241</v>
+        <v>4.1222409999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1357.640000</v>
+        <v>1357.64</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.816000</v>
+        <v>-178.816</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>14850.815315</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.125226</v>
+        <v>4.1252259999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>1378.200000</v>
+        <v>1378.2</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.028000</v>
+        <v>-209.02799999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>14861.402385</v>
+        <v>14861.402384999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.128167</v>
+        <v>4.1281670000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1399.730000</v>
+        <v>1399.73</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.247000</v>
+        <v>-253.24700000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>14872.428945</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.131230</v>
+        <v>4.1312300000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.613000</v>
+        <v>-313.613</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>14883.174805</v>
+        <v>14883.174805000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.134215</v>
+        <v>4.1342150000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1443.500000</v>
+        <v>1443.5</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.042000</v>
+        <v>-366.04199999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>14894.164133</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.137268</v>
+        <v>4.1372679999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.710000</v>
+        <v>1528.71</v>
       </c>
       <c r="BG8" s="1">
-        <v>-615.977000</v>
+        <v>-615.97699999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>14904.972739</v>
+        <v>14904.972739000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.140270</v>
+        <v>4.1402700000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.010000</v>
+        <v>1683.01</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1064.410000</v>
+        <v>-1064.4100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>14915.929576</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.143314</v>
+        <v>4.1433140000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.010000</v>
+        <v>1978.01</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1842.110000</v>
+        <v>-1842.11</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>14926.409082</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.146225</v>
+        <v>4.1462250000000003</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.000000</v>
+        <v>2365</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2740.180000</v>
+        <v>-2740.18</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>14937.207948</v>
+        <v>14937.207947999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.149224</v>
+        <v>4.1492240000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2854.190000</v>
+        <v>2854.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3721.760000</v>
+        <v>-3721.76</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>14949.175916</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.152549</v>
+        <v>4.1525489999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.940000</v>
+        <v>4282.9399999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6088.850000</v>
+        <v>-6088.85</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>14777.611728</v>
       </c>
       <c r="B9" s="1">
-        <v>4.104892</v>
+        <v>4.1048920000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.170000</v>
+        <v>1244.17</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.245000</v>
+        <v>-308.245</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>14787.935954</v>
       </c>
       <c r="G9" s="1">
-        <v>4.107760</v>
+        <v>4.1077599999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.560000</v>
+        <v>1269.56</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.720000</v>
+        <v>-265.72000000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>14798.425348</v>
+        <v>14798.425348000001</v>
       </c>
       <c r="L9" s="1">
-        <v>4.110674</v>
+        <v>4.1106740000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.810000</v>
+        <v>1303.81</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.792000</v>
+        <v>-202.792</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>14808.970293</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.113603</v>
+        <v>4.1136030000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.440000</v>
+        <v>1315.44</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.303000</v>
+        <v>-184.303</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>14819.492919</v>
       </c>
       <c r="V9" s="1">
-        <v>4.116526</v>
+        <v>4.1165260000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.070000</v>
+        <v>1328.07</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.908000</v>
+        <v>-170.90799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>14830.000203</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.119445</v>
+        <v>4.1194449999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1344.890000</v>
+        <v>1344.89</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.132000</v>
+        <v>-169.13200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>14840.497499</v>
+        <v>14840.497498999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.122360</v>
+        <v>4.1223599999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1357.690000</v>
+        <v>1357.69</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.785000</v>
+        <v>-178.785</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>14851.091583</v>
+        <v>14851.091582999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.125303</v>
+        <v>4.1253029999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1378.190000</v>
+        <v>1378.19</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.059000</v>
+        <v>-209.059</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>14861.762975</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.128267</v>
+        <v>4.1282670000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1399.770000</v>
+        <v>1399.77</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.245000</v>
+        <v>-253.245</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>14872.788081</v>
+        <v>14872.788081000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.131330</v>
+        <v>4.1313300000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1424.210000</v>
+        <v>1424.21</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.594000</v>
+        <v>-313.59399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>14883.534866</v>
@@ -2430,73 +2846,73 @@
         <v>4.134315</v>
       </c>
       <c r="BA9" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.979000</v>
+        <v>-365.97899999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>14894.887301</v>
+        <v>14894.887301000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.137469</v>
+        <v>4.1374690000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.710000</v>
+        <v>1528.71</v>
       </c>
       <c r="BG9" s="1">
-        <v>-615.965000</v>
+        <v>-615.96500000000003</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>14905.751174</v>
+        <v>14905.751174000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.140486</v>
+        <v>4.1404860000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.020000</v>
+        <v>1683.02</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1064.320000</v>
+        <v>-1064.32</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>14916.310009</v>
+        <v>14916.310009000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.143419</v>
+        <v>4.1434189999999997</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.950000</v>
+        <v>1977.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1841.890000</v>
+        <v>-1841.89</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>14926.821229</v>
+        <v>14926.821228999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.146339</v>
+        <v>4.1463390000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.750000</v>
+        <v>2364.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2740.710000</v>
+        <v>-2740.71</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>14937.657819</v>
@@ -2505,422 +2921,422 @@
         <v>4.149349</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.980000</v>
+        <v>2854.98</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3720.920000</v>
+        <v>-3720.92</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>14950.005723</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.152779</v>
+        <v>4.1527789999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4297.560000</v>
+        <v>4297.5600000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6095.700000</v>
+        <v>-6095.7</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>14777.870640</v>
+        <v>14777.870639999999</v>
       </c>
       <c r="B10" s="1">
-        <v>4.104964</v>
+        <v>4.1049639999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.437000</v>
+        <v>-308.43700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>14788.278224</v>
       </c>
       <c r="G10" s="1">
-        <v>4.107855</v>
+        <v>4.1078549999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.560000</v>
+        <v>1269.56</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.093000</v>
+        <v>-266.09300000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>14798.773539</v>
       </c>
       <c r="L10" s="1">
-        <v>4.110770</v>
+        <v>4.1107699999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>1303.970000</v>
+        <v>1303.97</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.626000</v>
+        <v>-202.626</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>14809.320468</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.113700</v>
+        <v>4.1136999999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.500000</v>
+        <v>1315.5</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.355000</v>
+        <v>-184.35499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>14819.913795</v>
       </c>
       <c r="V10" s="1">
-        <v>4.116643</v>
+        <v>4.1166429999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.090000</v>
+        <v>1328.09</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.784000</v>
+        <v>-170.78399999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>14830.267049</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.119519</v>
+        <v>4.1195190000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1344.710000</v>
+        <v>1344.71</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.734000</v>
+        <v>-168.73400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>14840.777243</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.122438</v>
+        <v>4.1224379999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1357.880000</v>
+        <v>1357.88</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.919000</v>
+        <v>-178.91900000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>14851.437757</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.125399</v>
+        <v>4.1253989999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1378.200000</v>
+        <v>1378.2</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.056000</v>
+        <v>-209.05600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>14862.125551</v>
+        <v>14862.125550999999</v>
       </c>
       <c r="AP10" s="1">
         <v>4.128368</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.224000</v>
+        <v>-253.22399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>14873.158915</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.131433</v>
+        <v>4.1314330000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>1424.200000</v>
+        <v>1424.2</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.607000</v>
+        <v>-313.60700000000003</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>14884.249602</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.134514</v>
+        <v>4.1345140000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1443.520000</v>
+        <v>1443.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.044000</v>
+        <v>-366.04399999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>14895.272729</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.137576</v>
+        <v>4.1375760000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-615.955000</v>
+        <v>-615.95500000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>14906.124660</v>
+        <v>14906.124659999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.140590</v>
+        <v>4.1405900000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.010000</v>
+        <v>1683.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1064.430000</v>
+        <v>-1064.43</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>14916.730616</v>
+        <v>14916.730616000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.143536</v>
+        <v>4.1435360000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.010000</v>
+        <v>1978.01</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1841.960000</v>
+        <v>-1841.96</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>14927.552856</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.146542</v>
+        <v>4.1465420000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2365.310000</v>
+        <v>2365.31</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2741.210000</v>
+        <v>-2741.21</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>14938.392395</v>
+        <v>14938.392395000001</v>
       </c>
       <c r="BY10" s="1">
         <v>4.149553</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2854.910000</v>
+        <v>2854.91</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3720.920000</v>
+        <v>-3720.92</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>14950.209580</v>
+        <v>14950.209580000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.152836</v>
+        <v>4.1528359999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>4302.680000</v>
+        <v>4302.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6078.140000</v>
+        <v>-6078.14</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>14778.210894</v>
       </c>
       <c r="B11" s="1">
-        <v>4.105059</v>
+        <v>4.1050589999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.530000</v>
+        <v>1244.53</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.146000</v>
+        <v>-308.14600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>14788.624433</v>
+        <v>14788.624433000001</v>
       </c>
       <c r="G11" s="1">
-        <v>4.107951</v>
+        <v>4.1079509999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.190000</v>
+        <v>1270.19</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.000000</v>
+        <v>-266</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>14799.200098</v>
+        <v>14799.200097999999</v>
       </c>
       <c r="L11" s="1">
-        <v>4.110889</v>
+        <v>4.1108890000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.672000</v>
+        <v>-202.672</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>14809.836805</v>
+        <v>14809.836805000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.113844</v>
+        <v>4.1138440000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.480000</v>
+        <v>1315.48</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.374000</v>
+        <v>-184.374</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>14820.191319</v>
       </c>
       <c r="V11" s="1">
-        <v>4.116720</v>
+        <v>4.1167199999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1327.990000</v>
+        <v>1327.99</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.753000</v>
+        <v>-170.75299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>14830.613720</v>
+        <v>14830.613719999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.119615</v>
+        <v>4.1196149999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>1344.930000</v>
+        <v>1344.93</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.964000</v>
+        <v>-168.964</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>14841.336763</v>
+        <v>14841.336762999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.122594</v>
+        <v>4.1225940000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>1357.590000</v>
+        <v>1357.59</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.800000</v>
+        <v>-178.8</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>14851.786979</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.125496</v>
+        <v>4.1254960000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1378.220000</v>
+        <v>1378.22</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.025000</v>
+        <v>-209.02500000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>14862.850702</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.128570</v>
+        <v>4.1285699999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.208000</v>
+        <v>-253.208</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>14873.882752</v>
@@ -2929,13 +3345,13 @@
         <v>4.131634</v>
       </c>
       <c r="AV11" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.608000</v>
+        <v>-313.608</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>14884.610228</v>
@@ -2944,13 +3360,13 @@
         <v>4.134614</v>
       </c>
       <c r="BA11" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.026000</v>
+        <v>-366.02600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>14895.638244</v>
@@ -2959,407 +3375,407 @@
         <v>4.137677</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG11" s="1">
-        <v>-615.954000</v>
+        <v>-615.95399999999995</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>14906.497652</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.140694</v>
+        <v>4.1406939999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.990000</v>
+        <v>1682.99</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1064.410000</v>
+        <v>-1064.4100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>14917.436422</v>
+        <v>14917.436422000001</v>
       </c>
       <c r="BO11" s="1">
         <v>4.143732</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.930000</v>
+        <v>1977.93</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1841.920000</v>
+        <v>-1841.92</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>14927.678349</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.146577</v>
+        <v>4.1465769999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.470000</v>
+        <v>2365.4699999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2741.520000</v>
+        <v>-2741.52</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>14938.522842</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.149590</v>
+        <v>4.1495899999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.890000</v>
+        <v>2853.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3721.410000</v>
+        <v>-3721.41</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>14950.727402</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.152980</v>
+        <v>4.1529800000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>4302.100000</v>
+        <v>4302.1000000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6083.640000</v>
+        <v>-6083.64</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>14778.636958</v>
+        <v>14778.636957999999</v>
       </c>
       <c r="B12" s="1">
-        <v>4.105177</v>
+        <v>4.1051770000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.371000</v>
+        <v>-308.37099999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>14789.046000</v>
+        <v>14789.046</v>
       </c>
       <c r="G12" s="1">
-        <v>4.108068</v>
+        <v>4.1080680000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.720000</v>
+        <v>1268.72</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.552000</v>
+        <v>-265.55200000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>14799.489298</v>
       </c>
       <c r="L12" s="1">
-        <v>4.110969</v>
+        <v>4.1109689999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.910000</v>
+        <v>1303.9100000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.334000</v>
+        <v>-202.334</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>14810.017349</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.113894</v>
+        <v>4.1138940000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.490000</v>
+        <v>1315.49</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.419000</v>
+        <v>-184.41900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>14820.535545</v>
+        <v>14820.535545000001</v>
       </c>
       <c r="V12" s="1">
-        <v>4.116815</v>
+        <v>4.1168149999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.140000</v>
+        <v>1328.14</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.891000</v>
+        <v>-170.89099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>14830.961912</v>
+        <v>14830.961912000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.119712</v>
+        <v>4.1197119999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1344.970000</v>
+        <v>1344.97</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.829000</v>
+        <v>-168.82900000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>14841.679964</v>
+        <v>14841.679964000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.122689</v>
+        <v>4.1226890000000003</v>
       </c>
       <c r="AG12" s="1">
-        <v>1357.680000</v>
+        <v>1357.68</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.800000</v>
+        <v>-178.8</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>14852.484812</v>
+        <v>14852.484812000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.125690</v>
+        <v>4.1256899999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1378.220000</v>
+        <v>1378.22</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.064000</v>
+        <v>-209.06399999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>14863.227173</v>
+        <v>14863.227172999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.128674</v>
+        <v>4.1286740000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1399.710000</v>
+        <v>1399.71</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.213000</v>
+        <v>-253.21299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>14874.266623</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.131741</v>
+        <v>4.1317409999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1424.200000</v>
+        <v>1424.2</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.614000</v>
+        <v>-313.61399999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>14884.968336</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.134713</v>
+        <v>4.1347129999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.057000</v>
+        <v>-366.05700000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>14896.305363</v>
+        <v>14896.305362999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.137863</v>
+        <v>4.1378630000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG12" s="1">
-        <v>-615.930000</v>
+        <v>-615.92999999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>14907.185123</v>
+        <v>14907.185122999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.140885</v>
+        <v>4.1408849999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.020000</v>
+        <v>1683.02</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1064.370000</v>
+        <v>-1064.3699999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>14917.554471</v>
+        <v>14917.554470999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.143765</v>
+        <v>4.1437650000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.050000</v>
+        <v>1978.05</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1842.040000</v>
+        <v>-1842.04</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>14928.091015</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.146692</v>
+        <v>4.1466919999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.750000</v>
+        <v>2365.75</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2741.830000</v>
+        <v>-2741.83</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>14938.944937</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.149707</v>
+        <v>4.1497070000000003</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2854.330000</v>
+        <v>2854.33</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3721.600000</v>
+        <v>-3721.6</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>14951.281964</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.153134</v>
+        <v>4.1531339999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>4296.940000</v>
+        <v>4296.9399999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6096.200000</v>
+        <v>-6096.2</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>14778.910253</v>
       </c>
       <c r="B13" s="1">
-        <v>4.105253</v>
+        <v>4.1052530000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.410000</v>
+        <v>1244.4100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.413000</v>
+        <v>-308.41300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>14789.334671</v>
+        <v>14789.334671000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.108149</v>
+        <v>4.1081490000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.200000</v>
+        <v>1269.2</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.010000</v>
+        <v>-265.01</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>14799.836465</v>
       </c>
       <c r="L13" s="1">
-        <v>4.111066</v>
+        <v>4.1110660000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.658000</v>
+        <v>-202.65799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>14810.364547</v>
+        <v>14810.364546999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.113990</v>
+        <v>4.1139900000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.370000</v>
+        <v>1315.37</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.357000</v>
+        <v>-184.357</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>14820.880314</v>
@@ -3368,103 +3784,103 @@
         <v>4.116911</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.000000</v>
+        <v>1328</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.885000</v>
+        <v>-170.88499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>14831.662759</v>
+        <v>14831.662759000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.119906</v>
+        <v>4.1199060000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1345.100000</v>
+        <v>1345.1</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.659000</v>
+        <v>-168.65899999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>14842.375369</v>
+        <v>14842.375368999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.122882</v>
+        <v>4.1228819999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1357.650000</v>
+        <v>1357.65</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.816000</v>
+        <v>-178.816</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>14852.834988</v>
+        <v>14852.834988000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.125787</v>
+        <v>4.1257869999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1378.170000</v>
+        <v>1378.17</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.074000</v>
+        <v>-209.07400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>14863.591261</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.128775</v>
+        <v>4.1287750000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1399.720000</v>
+        <v>1399.72</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.204000</v>
+        <v>-253.20400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>14874.643582</v>
+        <v>14874.643582000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.131845</v>
+        <v>4.1318450000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.572000</v>
+        <v>-313.572</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>14885.633471</v>
+        <v>14885.633470999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.134898</v>
+        <v>4.1348979999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>1443.460000</v>
+        <v>1443.46</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.991000</v>
+        <v>-365.99099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>14896.757012</v>
@@ -3473,407 +3889,407 @@
         <v>4.137988</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.620000</v>
+        <v>1528.62</v>
       </c>
       <c r="BG13" s="1">
-        <v>-615.941000</v>
+        <v>-615.94100000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>14907.298227</v>
+        <v>14907.298226999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.140916</v>
+        <v>4.1409159999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.970000</v>
+        <v>1682.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1064.370000</v>
+        <v>-1064.3699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>14917.973589</v>
+        <v>14917.973588999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.143882</v>
+        <v>4.1438819999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.760000</v>
+        <v>1977.76</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1842.020000</v>
+        <v>-1842.02</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>14928.522541</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.146812</v>
+        <v>4.1468119999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>2366.370000</v>
+        <v>2366.37</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2742.250000</v>
+        <v>-2742.25</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>14939.366041</v>
+        <v>14939.366040999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.149824</v>
+        <v>4.1498239999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2854.870000</v>
+        <v>2854.87</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3721.490000</v>
+        <v>-3721.49</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>14951.809213</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.153280</v>
+        <v>4.1532799999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>4301.450000</v>
+        <v>4301.45</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6077.870000</v>
+        <v>-6077.87</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>14779.251501</v>
+        <v>14779.251501000001</v>
       </c>
       <c r="B14" s="1">
-        <v>4.105348</v>
+        <v>4.1053480000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.270000</v>
+        <v>1244.27</v>
       </c>
       <c r="D14" s="1">
-        <v>-307.890000</v>
+        <v>-307.89</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>14789.684846</v>
       </c>
       <c r="G14" s="1">
-        <v>4.108246</v>
+        <v>4.1082460000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.875000</v>
+        <v>-265.875</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>14800.179201</v>
+        <v>14800.179201000001</v>
       </c>
       <c r="L14" s="1">
-        <v>4.111161</v>
+        <v>4.1111610000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.753000</v>
+        <v>-202.75299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>14811.061426</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.114184</v>
+        <v>4.1141839999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.390000</v>
+        <v>1315.39</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.311000</v>
+        <v>-184.31100000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>14821.557765</v>
       </c>
       <c r="V14" s="1">
-        <v>4.117099</v>
+        <v>4.1170989999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.150000</v>
+        <v>1328.15</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.856000</v>
+        <v>-170.85599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>14832.008998</v>
+        <v>14832.008997999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.120002</v>
+        <v>4.1200020000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>1345.010000</v>
+        <v>1345.01</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.731000</v>
+        <v>-168.73099999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>14842.717594</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.122977</v>
+        <v>4.1229769999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1357.640000</v>
+        <v>1357.64</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.774000</v>
+        <v>-178.774</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>14853.184667</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.125885</v>
+        <v>4.1258850000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1378.190000</v>
+        <v>1378.19</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.080000</v>
+        <v>-209.08</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>14864.263837</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.128962</v>
+        <v>4.1289619999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1399.720000</v>
+        <v>1399.72</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.231000</v>
+        <v>-253.23099999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>14875.271521</v>
+        <v>14875.271521000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.132020</v>
+        <v>4.1320199999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.588000</v>
+        <v>-313.58800000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>14886.046143</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.135013</v>
+        <v>4.1350129999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.001000</v>
+        <v>-366.00099999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>14897.117314</v>
+        <v>14897.117313999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.138088</v>
+        <v>4.1380879999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.620000</v>
+        <v>1528.62</v>
       </c>
       <c r="BG14" s="1">
-        <v>-615.935000</v>
+        <v>-615.93499999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>14907.662259</v>
+        <v>14907.662259000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.141017</v>
+        <v>4.1410169999999997</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.990000</v>
+        <v>1682.99</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1064.320000</v>
+        <v>-1064.32</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>14918.372373</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.143992</v>
+        <v>4.1439919999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.890000</v>
+        <v>1977.89</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1841.720000</v>
+        <v>-1841.72</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>14928.952039</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.146931</v>
+        <v>4.1469310000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.190000</v>
+        <v>2367.19</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2742.350000</v>
+        <v>-2742.35</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>14939.815947</v>
+        <v>14939.815946999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.149949</v>
+        <v>4.1499490000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.120000</v>
+        <v>2854.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3720.410000</v>
+        <v>-3720.41</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>14952.329976</v>
+        <v>14952.329976000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.153425</v>
+        <v>4.1534250000000004</v>
       </c>
       <c r="CE14" s="1">
-        <v>4279.560000</v>
+        <v>4279.5600000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6087.580000</v>
+        <v>-6087.58</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>14779.593279</v>
+        <v>14779.593279000001</v>
       </c>
       <c r="B15" s="1">
-        <v>4.105443</v>
+        <v>4.1054430000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.089000</v>
+        <v>-308.089</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>14790.029566</v>
+        <v>14790.029565999999</v>
       </c>
       <c r="G15" s="1">
-        <v>4.108342</v>
+        <v>4.1083420000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.500000</v>
+        <v>1269.5</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.702000</v>
+        <v>-265.702</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>14800.869136</v>
+        <v>14800.869135999999</v>
       </c>
       <c r="L15" s="1">
-        <v>4.111353</v>
+        <v>4.1113530000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>1303.940000</v>
+        <v>1303.94</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.569000</v>
+        <v>-202.56899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>14811.410120</v>
+        <v>14811.41012</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.114281</v>
+        <v>4.1142810000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.313000</v>
+        <v>-184.31299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>14821.909459</v>
@@ -3882,28 +4298,28 @@
         <v>4.117197</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.080000</v>
+        <v>1328.08</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.887000</v>
+        <v>-170.887</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>14832.358679</v>
+        <v>14832.358679000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.120100</v>
+        <v>4.1200999999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1344.940000</v>
+        <v>1344.94</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.748000</v>
+        <v>-168.74799999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>14843.364377</v>
@@ -3912,587 +4328,587 @@
         <v>4.123157</v>
       </c>
       <c r="AG15" s="1">
-        <v>1357.640000</v>
+        <v>1357.64</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.830000</v>
+        <v>-178.83</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>14853.843354</v>
+        <v>14853.843354000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.126068</v>
+        <v>4.1260680000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1378.210000</v>
+        <v>1378.21</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.057000</v>
+        <v>-209.05699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>14864.665565</v>
+        <v>14864.665564999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.129074</v>
+        <v>4.1290740000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.234000</v>
+        <v>-253.23400000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>14875.380638</v>
+        <v>14875.380638000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.132050</v>
+        <v>4.1320499999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>1424.170000</v>
+        <v>1424.17</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.597000</v>
+        <v>-313.59699999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>14886.430016</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.135119</v>
+        <v>4.1351190000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.024000</v>
+        <v>-366.024</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>14897.476416</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.138188</v>
+        <v>4.1381880000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG15" s="1">
-        <v>-615.946000</v>
+        <v>-615.94600000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>14908.035251</v>
+        <v>14908.035250999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.141121</v>
+        <v>4.1411210000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.960000</v>
+        <v>1682.96</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1064.290000</v>
+        <v>-1064.29</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>14918.795989</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.144110</v>
+        <v>4.1441100000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.950000</v>
+        <v>1977.95</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1841.880000</v>
+        <v>-1841.88</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>14929.362263</v>
+        <v>14929.362263000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.147045</v>
+        <v>4.1470450000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>2367.700000</v>
+        <v>2367.6999999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2742.550000</v>
+        <v>-2742.55</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>14940.236035</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.150066</v>
+        <v>4.1500659999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2853.870000</v>
+        <v>2853.87</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3721.300000</v>
+        <v>-3721.3</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>14952.868135</v>
+        <v>14952.868135000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.153574</v>
+        <v>4.1535739999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4302.760000</v>
+        <v>4302.76</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6087.350000</v>
+        <v>-6087.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>14780.274251</v>
+        <v>14780.274251000001</v>
       </c>
       <c r="B16" s="1">
-        <v>4.105632</v>
+        <v>4.1056319999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.730000</v>
+        <v>1244.73</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.432000</v>
+        <v>-308.43200000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>14790.722504</v>
+        <v>14790.722503999999</v>
       </c>
       <c r="G16" s="1">
-        <v>4.108534</v>
+        <v>4.1085339999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.301000</v>
+        <v>-265.30099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>14801.217354</v>
       </c>
       <c r="L16" s="1">
-        <v>4.111449</v>
+        <v>4.1114490000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>1303.680000</v>
+        <v>1303.68</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.537000</v>
+        <v>-202.53700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>14811.762802</v>
+        <v>14811.762801999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.114379</v>
+        <v>4.1143789999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.520000</v>
+        <v>1315.52</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.279000</v>
+        <v>-184.279</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>14822.253652</v>
+        <v>14822.253651999999</v>
       </c>
       <c r="V16" s="1">
-        <v>4.117293</v>
+        <v>4.1172930000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.100000</v>
+        <v>1328.1</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.814000</v>
+        <v>-170.81399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>14833.016864</v>
+        <v>14833.016863999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.120282</v>
+        <v>4.1202819999999996</v>
       </c>
       <c r="AB16" s="1">
-        <v>1344.960000</v>
+        <v>1344.96</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.748000</v>
+        <v>-168.74799999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>14843.747287</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.123263</v>
+        <v>4.1232629999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>1357.670000</v>
+        <v>1357.67</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.822000</v>
+        <v>-178.822</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>14854.226780</v>
+        <v>14854.226780000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.126174</v>
+        <v>4.1261739999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1378.190000</v>
+        <v>1378.19</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.052000</v>
+        <v>-209.05199999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>14865.052939</v>
+        <v>14865.052938999999</v>
       </c>
       <c r="AP16" s="1">
         <v>4.129181</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1399.710000</v>
+        <v>1399.71</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.213000</v>
+        <v>-253.21299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>14875.772511</v>
+        <v>14875.772510999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.132159</v>
+        <v>4.1321589999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1424.210000</v>
+        <v>1424.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.599000</v>
+        <v>-313.59899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>14886.788126</v>
+        <v>14886.788125999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.135219</v>
+        <v>4.1352190000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.014000</v>
+        <v>-366.01400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>14897.893055</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.138304</v>
+        <v>4.1383039999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.640000</v>
+        <v>1528.64</v>
       </c>
       <c r="BG16" s="1">
-        <v>-615.925000</v>
+        <v>-615.92499999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>14908.504466</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.141251</v>
+        <v>4.1412509999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.980000</v>
+        <v>1682.98</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1064.280000</v>
+        <v>-1064.28</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>14919.190310</v>
+        <v>14919.19031</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.144220</v>
+        <v>4.1442199999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.790000</v>
+        <v>1977.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1841.940000</v>
+        <v>-1841.94</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>14929.793255</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.147165</v>
+        <v>4.1471650000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.210000</v>
+        <v>2368.21</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2742.030000</v>
+        <v>-2742.03</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>14940.658616</v>
+        <v>14940.658616000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.150183</v>
+        <v>4.1501830000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.620000</v>
+        <v>2853.62</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3721.030000</v>
+        <v>-3721.03</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>14953.409798</v>
+        <v>14953.409798000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.153725</v>
+        <v>4.1537249999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>4281.800000</v>
+        <v>4281.8</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6077.550000</v>
+        <v>-6077.55</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>14780.621452</v>
+        <v>14780.621451999999</v>
       </c>
       <c r="B17" s="1">
         <v>4.105728</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.410000</v>
+        <v>1244.4100000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.125000</v>
+        <v>-308.125</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>14791.065715</v>
+        <v>14791.065715000001</v>
       </c>
       <c r="G17" s="1">
-        <v>4.108629</v>
+        <v>4.1086289999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.400000</v>
+        <v>1269.4000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.415000</v>
+        <v>-265.41500000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>14801.566016</v>
+        <v>14801.566016000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.111546</v>
+        <v>4.1115459999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.080000</v>
+        <v>-202.08</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>14812.414512</v>
+        <v>14812.414511999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.114560</v>
+        <v>4.11456</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.410000</v>
+        <v>-184.41</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>14822.903411</v>
+        <v>14822.903410999999</v>
       </c>
       <c r="V17" s="1">
-        <v>4.117473</v>
+        <v>4.1174730000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.150000</v>
+        <v>1328.15</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.749000</v>
+        <v>-170.749</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>14833.403750</v>
+        <v>14833.403749999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.120390</v>
+        <v>4.1203900000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1344.920000</v>
+        <v>1344.92</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.919000</v>
+        <v>-168.91900000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>14844.094983</v>
+        <v>14844.094983000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.123360</v>
+        <v>4.1233599999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1357.640000</v>
+        <v>1357.64</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.919000</v>
+        <v>-178.91900000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>14854.577433</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.126272</v>
+        <v>4.1262720000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1378.160000</v>
+        <v>1378.16</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.063000</v>
+        <v>-209.06299999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>14865.415020</v>
+        <v>14865.41502</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.129282</v>
+        <v>4.1292819999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1399.730000</v>
+        <v>1399.73</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.212000</v>
+        <v>-253.21199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>14876.205485</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.132279</v>
+        <v>4.1322789999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.566000</v>
+        <v>-313.56599999999997</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>14887.205758</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.135335</v>
+        <v>4.1353350000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1443.450000</v>
+        <v>1443.45</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.022000</v>
+        <v>-366.02199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>14898.196607</v>
@@ -4501,315 +4917,315 @@
         <v>4.138388</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG17" s="1">
-        <v>-615.936000</v>
+        <v>-615.93600000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>14908.778785</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.141327</v>
+        <v>4.1413270000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1064.270000</v>
+        <v>-1064.27</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>14919.612894</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.144337</v>
+        <v>4.1443370000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.840000</v>
+        <v>1977.84</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1841.770000</v>
+        <v>-1841.77</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>14930.222326</v>
+        <v>14930.222325999999</v>
       </c>
       <c r="BT17" s="1">
         <v>4.147284</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.730000</v>
+        <v>2368.73</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2741.470000</v>
+        <v>-2741.47</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>14941.098071</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.150305</v>
+        <v>4.1503050000000004</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.010000</v>
+        <v>2854.01</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3720.680000</v>
+        <v>-3720.68</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>14953.948949</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.153875</v>
+        <v>4.1538750000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>4292.570000</v>
+        <v>4292.57</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6091.610000</v>
+        <v>-6091.61</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>14780.961210</v>
+        <v>14780.961209999999</v>
       </c>
       <c r="B18" s="1">
         <v>4.105823</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.300000</v>
+        <v>1244.3</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.096000</v>
+        <v>-308.096</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>14791.414893</v>
+        <v>14791.414892999999</v>
       </c>
       <c r="G18" s="1">
-        <v>4.108726</v>
+        <v>4.1087259999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.660000</v>
+        <v>1269.6600000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.210000</v>
+        <v>-265.20999999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>14802.225198</v>
       </c>
       <c r="L18" s="1">
-        <v>4.111729</v>
+        <v>4.1117290000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>1303.830000</v>
+        <v>1303.83</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.436000</v>
+        <v>-202.43600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>14812.804410</v>
+        <v>14812.804410000001</v>
       </c>
       <c r="Q18" s="1">
         <v>4.114668</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.390000</v>
+        <v>1315.39</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.382000</v>
+        <v>-184.38200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>14823.283876</v>
       </c>
       <c r="V18" s="1">
-        <v>4.117579</v>
+        <v>4.1175790000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.040000</v>
+        <v>1328.04</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.810000</v>
+        <v>-170.81</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>14833.753428</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.120487</v>
+        <v>4.1204869999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1344.840000</v>
+        <v>1344.84</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.894000</v>
+        <v>-168.89400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>14844.435767</v>
+        <v>14844.435767000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.123454</v>
+        <v>4.1234539999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>1357.660000</v>
+        <v>1357.66</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.785000</v>
+        <v>-178.785</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>14854.925657</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.126368</v>
+        <v>4.1263680000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1378.200000</v>
+        <v>1378.2</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.077000</v>
+        <v>-209.077</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>14865.835658</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.129399</v>
+        <v>4.1293990000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.210000</v>
+        <v>-253.21</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>14876.498621</v>
+        <v>14876.498621000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.132361</v>
+        <v>4.1323610000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>1424.180000</v>
+        <v>1424.18</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.571000</v>
+        <v>-313.57100000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>14887.507680</v>
+        <v>14887.507680000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.135419</v>
+        <v>4.1354189999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1443.510000</v>
+        <v>1443.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.990000</v>
+        <v>-365.99</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>14898.560671</v>
+        <v>14898.560670999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.138489</v>
+        <v>4.1384889999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG18" s="1">
-        <v>-615.938000</v>
+        <v>-615.93799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>14909.180018</v>
+        <v>14909.180017999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.141439</v>
+        <v>4.1414390000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1064.270000</v>
+        <v>-1064.27</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>14920.007718</v>
+        <v>14920.007718000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.144447</v>
+        <v>4.1444470000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.750000</v>
+        <v>1977.75</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1841.730000</v>
+        <v>-1841.73</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>14930.644886</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.147401</v>
+        <v>4.1474010000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.040000</v>
+        <v>2369.04</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2740.890000</v>
+        <v>-2740.89</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>14941.959621</v>
@@ -4818,347 +5234,347 @@
         <v>4.150544</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.230000</v>
+        <v>2854.23</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3721.190000</v>
+        <v>-3721.19</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>14954.489093</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.154025</v>
+        <v>4.1540249999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4296.750000</v>
+        <v>4296.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6074.400000</v>
+        <v>-6074.4</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>14781.606505</v>
       </c>
       <c r="B19" s="1">
-        <v>4.106002</v>
+        <v>4.1060020000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.570000</v>
+        <v>1244.57</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.618000</v>
+        <v>-308.61799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>14792.076061</v>
       </c>
       <c r="G19" s="1">
-        <v>4.108910</v>
+        <v>4.1089099999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.890000</v>
+        <v>1269.8900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.165000</v>
+        <v>-265.16500000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>14802.602157</v>
+        <v>14802.602156999999</v>
       </c>
       <c r="L19" s="1">
         <v>4.111834</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.770000</v>
+        <v>1303.77</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.643000</v>
+        <v>-202.643</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>14813.156560</v>
+        <v>14813.156559999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.114766</v>
+        <v>4.1147660000000004</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.343000</v>
+        <v>-184.34299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>14823.627570</v>
+        <v>14823.627570000001</v>
       </c>
       <c r="V19" s="1">
-        <v>4.117674</v>
+        <v>4.1176740000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.040000</v>
+        <v>1328.04</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.791000</v>
+        <v>-170.791</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>14834.101093</v>
+        <v>14834.101092999999</v>
       </c>
       <c r="AA19" s="1">
         <v>4.120584</v>
       </c>
       <c r="AB19" s="1">
-        <v>1345.030000</v>
+        <v>1345.03</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.706000</v>
+        <v>-168.70599999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>14844.856375</v>
+        <v>14844.856374999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.123571</v>
+        <v>4.1235710000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1357.620000</v>
+        <v>1357.62</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.861000</v>
+        <v>-178.86099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>14855.356680</v>
+        <v>14855.356680000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.126488</v>
+        <v>4.1264880000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1378.180000</v>
+        <v>1378.18</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.060000</v>
+        <v>-209.06</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>14866.132234</v>
+        <v>14866.132234000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.129481</v>
+        <v>4.1294810000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.206000</v>
+        <v>-253.20599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>14876.865696</v>
+        <v>14876.865696000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.132463</v>
+        <v>4.1324630000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>1424.190000</v>
+        <v>1424.19</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.552000</v>
+        <v>-313.55200000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>14887.866429</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.135518</v>
+        <v>4.1355180000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.053000</v>
+        <v>-366.053</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>14898.922750</v>
+        <v>14898.92275</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.138590</v>
+        <v>4.1385899999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG19" s="1">
-        <v>-615.968000</v>
+        <v>-615.96799999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>14909.928977</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.141647</v>
+        <v>4.1416469999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.970000</v>
+        <v>1682.97</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1064.200000</v>
+        <v>-1064.2</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>14920.440690</v>
+        <v>14920.440689999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.144567</v>
+        <v>4.1445670000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.830000</v>
+        <v>1977.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1841.710000</v>
+        <v>-1841.71</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>14931.064499</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.147518</v>
+        <v>4.1475179999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.490000</v>
+        <v>2369.4899999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2740.150000</v>
+        <v>-2740.15</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>14942.382250</v>
+        <v>14942.382250000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.150662</v>
+        <v>4.1506619999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2854.470000</v>
+        <v>2854.47</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3720.340000</v>
+        <v>-3720.34</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>14955.031684</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.154175</v>
+        <v>4.1541750000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.600000</v>
+        <v>4281.6000000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6088.200000</v>
+        <v>-6088.2</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>14781.985448</v>
+        <v>14781.985447999999</v>
       </c>
       <c r="B20" s="1">
-        <v>4.106107</v>
+        <v>4.1061069999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.261000</v>
+        <v>-308.26100000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>14792.449547</v>
       </c>
       <c r="G20" s="1">
-        <v>4.109014</v>
+        <v>4.1090140000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.550000</v>
+        <v>1269.55</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.361000</v>
+        <v>-265.36099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>14802.947373</v>
+        <v>14802.947373000001</v>
       </c>
       <c r="L20" s="1">
-        <v>4.111930</v>
+        <v>4.1119300000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.130000</v>
+        <v>1304.1300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.843000</v>
+        <v>-202.84299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>14813.503263</v>
+        <v>14813.503263000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.114862</v>
+        <v>4.1148619999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.380000</v>
+        <v>1315.38</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.325000</v>
+        <v>-184.32499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>14823.969345</v>
@@ -5167,88 +5583,88 @@
         <v>4.117769</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.160000</v>
+        <v>1328.16</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.812000</v>
+        <v>-170.81200000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>14834.529413</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.120703</v>
+        <v>4.1207029999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1344.660000</v>
+        <v>1344.66</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.964000</v>
+        <v>-168.964</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>14845.128312</v>
+        <v>14845.128312000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.123647</v>
+        <v>4.1236470000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1357.670000</v>
+        <v>1357.67</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.893000</v>
+        <v>-178.893</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>14855.631464</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.126564</v>
+        <v>4.1265640000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1378.210000</v>
+        <v>1378.21</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.064000</v>
+        <v>-209.06399999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>14866.492344</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.129581</v>
+        <v>4.1295809999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1399.720000</v>
+        <v>1399.72</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.190000</v>
+        <v>-253.19</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>14877.231211</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.132564</v>
+        <v>4.1325640000000003</v>
       </c>
       <c r="AV20" s="1">
-        <v>1424.170000</v>
+        <v>1424.17</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.563000</v>
+        <v>-313.56299999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>14888.225069</v>
@@ -5257,195 +5673,195 @@
         <v>4.135618</v>
       </c>
       <c r="BA20" s="1">
-        <v>1443.460000</v>
+        <v>1443.46</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.017000</v>
+        <v>-366.017</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>14899.645917</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.138791</v>
+        <v>4.1387910000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG20" s="1">
-        <v>-615.933000</v>
+        <v>-615.93299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>14910.337184</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.141760</v>
+        <v>4.1417599999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.960000</v>
+        <v>1682.96</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1064.250000</v>
+        <v>-1064.25</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>14920.824594</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.144673</v>
+        <v>4.1446730000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.630000</v>
+        <v>1977.63</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1841.600000</v>
+        <v>-1841.6</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>14931.491588</v>
+        <v>14931.491588000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.147637</v>
+        <v>4.1476369999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.250000</v>
+        <v>2369.25</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2739.610000</v>
+        <v>-2739.61</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>14943.113317</v>
+        <v>14943.113316999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.150865</v>
+        <v>4.1508649999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2853.850000</v>
+        <v>2853.85</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3720.400000</v>
+        <v>-3720.4</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>14955.881865</v>
+        <v>14955.881864999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.154412</v>
+        <v>4.1544119999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4288.300000</v>
+        <v>4288.3</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6072.280000</v>
+        <v>-6072.28</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>14782.331656</v>
       </c>
       <c r="B21" s="1">
-        <v>4.106203</v>
+        <v>4.1062029999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.420000</v>
+        <v>1244.42</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.136000</v>
+        <v>-308.13600000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>14792.793772</v>
+        <v>14792.793772000001</v>
       </c>
       <c r="G21" s="1">
-        <v>4.109109</v>
+        <v>4.1091090000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.430000</v>
+        <v>1269.43</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.089000</v>
+        <v>-265.089</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>14803.296557</v>
       </c>
       <c r="L21" s="1">
-        <v>4.112027</v>
+        <v>4.1120270000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1303.780000</v>
+        <v>1303.78</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.648000</v>
+        <v>-202.648</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>14813.931014</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.114981</v>
+        <v>4.1149810000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.349000</v>
+        <v>-184.34899999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>14824.390913</v>
+        <v>14824.390912999999</v>
       </c>
       <c r="V21" s="1">
-        <v>4.117886</v>
+        <v>4.1178860000000004</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.100000</v>
+        <v>1328.1</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.845000</v>
+        <v>-170.845</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>14834.806403</v>
+        <v>14834.806403000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.120780</v>
+        <v>4.1207799999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1344.780000</v>
+        <v>1344.78</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.852000</v>
+        <v>-168.852</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>14845.471877</v>
@@ -5454,210 +5870,210 @@
         <v>4.123742</v>
       </c>
       <c r="AG21" s="1">
-        <v>1357.680000</v>
+        <v>1357.68</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.893000</v>
+        <v>-178.893</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>14855.983629</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.126662</v>
+        <v>4.1266619999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1378.180000</v>
+        <v>1378.18</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.054000</v>
+        <v>-209.054</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>14866.855402</v>
+        <v>14866.855401999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.129682</v>
+        <v>4.1296819999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.155000</v>
+        <v>-253.155</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>14877.958478</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.132766</v>
+        <v>4.1327660000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1424.160000</v>
+        <v>1424.16</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.568000</v>
+        <v>-313.56799999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>14888.945723</v>
+        <v>14888.945723000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.135818</v>
+        <v>4.1358180000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.008000</v>
+        <v>-366.00799999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>14900.006015</v>
+        <v>14900.006015000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.138891</v>
+        <v>4.1388910000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-615.896000</v>
+        <v>-615.89599999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>14910.710672</v>
+        <v>14910.710671999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>4.141864</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1064.200000</v>
+        <v>-1064.2</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>14921.246689</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.144791</v>
+        <v>4.1447909999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.750000</v>
+        <v>1977.75</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1841.740000</v>
+        <v>-1841.74</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>14932.223155</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.147840</v>
+        <v>4.1478400000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.930000</v>
+        <v>2368.9299999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2738.990000</v>
+        <v>-2738.99</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>14943.281993</v>
+        <v>14943.281993000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.150912</v>
+        <v>4.1509119999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.190000</v>
+        <v>2854.19</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3720.040000</v>
+        <v>-3720.04</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>14956.108035</v>
+        <v>14956.108034999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.154474</v>
+        <v>4.1544740000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>4291.200000</v>
+        <v>4291.2</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6071.370000</v>
+        <v>-6071.37</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>14782.673896</v>
       </c>
       <c r="B22" s="1">
-        <v>4.106298</v>
+        <v>4.1062979999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.460000</v>
+        <v>1244.46</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.994000</v>
+        <v>-307.99400000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>14793.137498</v>
       </c>
       <c r="G22" s="1">
-        <v>4.109205</v>
+        <v>4.1092050000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.980000</v>
+        <v>1268.98</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.375000</v>
+        <v>-265.375</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>14803.711212</v>
       </c>
       <c r="L22" s="1">
-        <v>4.112142</v>
+        <v>4.1121420000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>1303.840000</v>
+        <v>1303.8399999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.693000</v>
+        <v>-202.69300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>14814.201598</v>
@@ -5666,103 +6082,103 @@
         <v>4.115056</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.460000</v>
+        <v>1315.46</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.359000</v>
+        <v>-184.35900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>14824.679104</v>
+        <v>14824.679104000001</v>
       </c>
       <c r="V22" s="1">
         <v>4.117966</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.010000</v>
+        <v>1328.01</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.793000</v>
+        <v>-170.79300000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>14835.159587</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.120878</v>
+        <v>4.1208780000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>1344.880000</v>
+        <v>1344.88</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.772000</v>
+        <v>-168.77199999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>14845.815108</v>
+        <v>14845.815108000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.123838</v>
+        <v>4.1238380000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1357.700000</v>
+        <v>1357.7</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.883000</v>
+        <v>-178.88300000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>14856.332774</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.126759</v>
+        <v>4.1267589999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1378.180000</v>
+        <v>1378.18</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.056000</v>
+        <v>-209.05600000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>14867.574634</v>
+        <v>14867.574634000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.129882</v>
+        <v>4.1298820000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1399.690000</v>
+        <v>1399.69</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.180000</v>
+        <v>-253.18</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>14878.350683</v>
+        <v>14878.350683000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.132875</v>
+        <v>4.1328750000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>1424.150000</v>
+        <v>1424.15</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.556000</v>
+        <v>-313.55599999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>14889.322219</v>
@@ -5771,195 +6187,195 @@
         <v>4.135923</v>
       </c>
       <c r="BA22" s="1">
-        <v>1443.460000</v>
+        <v>1443.46</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.012000</v>
+        <v>-366.012</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>14900.367101</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.138991</v>
+        <v>4.1389909999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG22" s="1">
-        <v>-615.872000</v>
+        <v>-615.87199999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>14911.397166</v>
+        <v>14911.397166000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>4.142055</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1064.200000</v>
+        <v>-1064.2</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>14921.961460</v>
+        <v>14921.96146</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.144989</v>
+        <v>4.1449889999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.520000</v>
+        <v>1977.52</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1841.500000</v>
+        <v>-1841.5</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>14932.336251</v>
+        <v>14932.336251000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.147871</v>
+        <v>4.1478710000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>2368.750000</v>
+        <v>2368.75</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2738.080000</v>
+        <v>-2738.08</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>14943.709012</v>
+        <v>14943.709011999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.151030</v>
+        <v>4.1510300000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2854.190000</v>
+        <v>2854.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3720.180000</v>
+        <v>-3720.18</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>14956.626818</v>
+        <v>14956.626818000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.154619</v>
+        <v>4.1546190000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>4281.140000</v>
+        <v>4281.1400000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6086.340000</v>
+        <v>-6086.34</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>14783.094503</v>
       </c>
       <c r="B23" s="1">
-        <v>4.106415</v>
+        <v>4.1064150000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.352000</v>
+        <v>-308.35199999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>14793.570011</v>
       </c>
       <c r="G23" s="1">
-        <v>4.109325</v>
+        <v>4.1093250000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.840000</v>
+        <v>1268.8399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.832000</v>
+        <v>-264.83199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>14804.007324</v>
       </c>
       <c r="L23" s="1">
-        <v>4.112224</v>
+        <v>4.1122240000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.480000</v>
+        <v>1304.48</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.464000</v>
+        <v>-202.464</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>14814.553795</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.115154</v>
+        <v>4.1151540000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.379000</v>
+        <v>-184.37899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>14825.023312</v>
+        <v>14825.023311999999</v>
       </c>
       <c r="V23" s="1">
-        <v>4.118062</v>
+        <v>4.1180620000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1327.970000</v>
+        <v>1327.97</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.847000</v>
+        <v>-170.84700000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>14835.505764</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.120974</v>
+        <v>4.1209740000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>1344.840000</v>
+        <v>1344.84</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.960000</v>
+        <v>-168.96</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>14846.500579</v>
@@ -5968,467 +6384,467 @@
         <v>4.124028</v>
       </c>
       <c r="AG23" s="1">
-        <v>1357.720000</v>
+        <v>1357.72</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.868000</v>
+        <v>-178.86799999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>14857.029654</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.126953</v>
+        <v>4.1269530000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1378.160000</v>
+        <v>1378.16</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.058000</v>
+        <v>-209.05799999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>14867.935224</v>
+        <v>14867.935224000001</v>
       </c>
       <c r="AP23" s="1">
         <v>4.129982</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1399.710000</v>
+        <v>1399.71</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.212000</v>
+        <v>-253.21199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>14878.716729</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.132977</v>
+        <v>4.1329770000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>1424.200000</v>
+        <v>1424.2</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.550000</v>
+        <v>-313.55</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>14889.701626</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.136028</v>
+        <v>4.1360279999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1443.420000</v>
+        <v>1443.42</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.984000</v>
+        <v>-365.98399999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>14901.038188</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.139177</v>
+        <v>4.1391770000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.610000</v>
+        <v>1528.61</v>
       </c>
       <c r="BG23" s="1">
-        <v>-615.879000</v>
+        <v>-615.87900000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>14911.868334</v>
+        <v>14911.868334000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.142186</v>
+        <v>4.1421859999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.930000</v>
+        <v>1682.93</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1064.190000</v>
+        <v>-1064.19</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>14922.070544</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.145020</v>
+        <v>4.1450199999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.810000</v>
+        <v>1977.81</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1841.620000</v>
+        <v>-1841.62</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>14932.773218</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.147993</v>
+        <v>4.1479929999999996</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.180000</v>
+        <v>2368.1799999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2737.610000</v>
+        <v>-2737.61</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>14944.127139</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.151146</v>
+        <v>4.1511459999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2853.250000</v>
+        <v>2853.25</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3719.910000</v>
+        <v>-3719.91</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>14957.149601</v>
+        <v>14957.149600999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.154764</v>
+        <v>4.1547640000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4298.340000</v>
+        <v>4298.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6090.770000</v>
+        <v>-6090.77</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>14783.374247</v>
       </c>
       <c r="B24" s="1">
-        <v>4.106493</v>
+        <v>4.1064930000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.425000</v>
+        <v>-308.42500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>14793.832891</v>
       </c>
       <c r="G24" s="1">
-        <v>4.109398</v>
+        <v>4.1093979999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.520000</v>
+        <v>1269.52</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.199000</v>
+        <v>-266.19900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>14804.352573</v>
       </c>
       <c r="L24" s="1">
-        <v>4.112320</v>
+        <v>4.1123200000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1303.930000</v>
+        <v>1303.93</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.985000</v>
+        <v>-202.98500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>14814.898478</v>
+        <v>14814.898477999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.115250</v>
+        <v>4.1152499999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.320000</v>
+        <v>1315.32</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.353000</v>
+        <v>-184.35300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>14825.366544</v>
       </c>
       <c r="V24" s="1">
-        <v>4.118157</v>
+        <v>4.1181570000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.150000</v>
+        <v>1328.15</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.816000</v>
+        <v>-170.816</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>14836.203137</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.121168</v>
+        <v>4.1211679999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1344.860000</v>
+        <v>1344.86</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.961000</v>
+        <v>-168.96100000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>14846.846787</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.124124</v>
+        <v>4.1241240000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1357.630000</v>
+        <v>1357.63</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.934000</v>
+        <v>-178.934</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>14857.379829</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.127050</v>
+        <v>4.1270499999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>1378.200000</v>
+        <v>1378.2</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.071000</v>
+        <v>-209.071</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>14868.295320</v>
+        <v>14868.295319999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.130082</v>
+        <v>4.1300819999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1399.700000</v>
+        <v>1399.7</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.182000</v>
+        <v>-253.18199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>14879.397273</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.133166</v>
+        <v>4.1331660000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1424.160000</v>
+        <v>1424.16</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.566000</v>
+        <v>-313.56599999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>14890.376218</v>
+        <v>14890.376217999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.136216</v>
+        <v>4.1362160000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.008000</v>
+        <v>-366.00799999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>14901.477147</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.139299</v>
+        <v>4.1392990000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.610000</v>
+        <v>1528.61</v>
       </c>
       <c r="BG24" s="1">
-        <v>-615.902000</v>
+        <v>-615.90200000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>14912.248765</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.142291</v>
+        <v>4.1422910000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.930000</v>
+        <v>1682.93</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1064.140000</v>
+        <v>-1064.1400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>14922.487184</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.145135</v>
+        <v>4.1451349999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.690000</v>
+        <v>1977.69</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1841.610000</v>
+        <v>-1841.61</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>14933.201762</v>
+        <v>14933.201762000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.148112</v>
+        <v>4.1481120000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.460000</v>
+        <v>2367.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2737.840000</v>
+        <v>-2737.84</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>14944.569314</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.151269</v>
+        <v>4.1512690000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2853.490000</v>
+        <v>2853.49</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3720.600000</v>
+        <v>-3720.6</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>14957.664946</v>
+        <v>14957.664946000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.154907</v>
+        <v>4.1549069999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>4297.310000</v>
+        <v>4297.3100000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6071.790000</v>
+        <v>-6071.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>14783.715527</v>
       </c>
       <c r="B25" s="1">
-        <v>4.106588</v>
+        <v>4.1065880000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.461000</v>
+        <v>-308.46100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>14794.173183</v>
+        <v>14794.173183000001</v>
       </c>
       <c r="G25" s="1">
-        <v>4.109493</v>
+        <v>4.1094929999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.860000</v>
+        <v>1269.8599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.508000</v>
+        <v>-265.50799999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>14804.696295</v>
       </c>
       <c r="L25" s="1">
-        <v>4.112416</v>
+        <v>4.1124159999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.584000</v>
+        <v>-202.584</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>14815.595852</v>
@@ -6437,467 +6853,468 @@
         <v>4.115443</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.304000</v>
+        <v>-184.304</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>14826.055486</v>
+        <v>14826.055485999999</v>
       </c>
       <c r="V25" s="1">
-        <v>4.118349</v>
+        <v>4.1183490000000003</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.040000</v>
+        <v>1328.04</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.798000</v>
+        <v>-170.798</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>14836.551330</v>
+        <v>14836.55133</v>
       </c>
       <c r="AA25" s="1">
         <v>4.121264</v>
       </c>
       <c r="AB25" s="1">
-        <v>1344.870000</v>
+        <v>1344.87</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.975000</v>
+        <v>-168.97499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>14847.187573</v>
+        <v>14847.187572999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.124219</v>
+        <v>4.1242190000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1357.650000</v>
+        <v>1357.65</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.903000</v>
+        <v>-178.90299999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>14857.726074</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.127146</v>
+        <v>4.1271459999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1378.220000</v>
+        <v>1378.22</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.038000</v>
+        <v>-209.03800000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>14868.957447</v>
+        <v>14868.957447000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.130266</v>
+        <v>4.1302659999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1399.710000</v>
+        <v>1399.71</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.187000</v>
+        <v>-253.18700000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>14879.834712</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.133287</v>
+        <v>4.1332870000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1424.200000</v>
+        <v>1424.2</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.531000</v>
+        <v>-313.53100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>14890.784890</v>
+        <v>14890.784890000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.136329</v>
+        <v>4.1363289999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1443.430000</v>
+        <v>1443.43</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.960000</v>
+        <v>-365.96</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>14901.844682</v>
+        <v>14901.844682000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.139401</v>
+        <v>4.1394010000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG25" s="1">
-        <v>-615.945000</v>
+        <v>-615.94500000000005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>14912.633164</v>
+        <v>14912.633164000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>4.142398</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.930000</v>
+        <v>1682.93</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1064.190000</v>
+        <v>-1064.19</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>14922.886463</v>
+        <v>14922.886463000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.145246</v>
+        <v>4.1452460000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.790000</v>
+        <v>1977.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1841.520000</v>
+        <v>-1841.52</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>14933.627826</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.148230</v>
+        <v>4.1482299999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2366.660000</v>
+        <v>2366.66</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2737.240000</v>
+        <v>-2737.24</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>14944.996625</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.151388</v>
+        <v>4.1513879999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2854.300000</v>
+        <v>2854.3</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3719.580000</v>
+        <v>-3719.58</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>14958.178800</v>
+        <v>14958.1788</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.155050</v>
+        <v>4.1550500000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4300.800000</v>
+        <v>4300.8</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6077.750000</v>
+        <v>-6077.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>14784.055750</v>
+        <v>14784.05575</v>
       </c>
       <c r="B26" s="1">
-        <v>4.106682</v>
+        <v>4.1066820000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.210000</v>
+        <v>1244.21</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.214000</v>
+        <v>-308.214</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>14794.862584</v>
       </c>
       <c r="G26" s="1">
-        <v>4.109684</v>
+        <v>4.1096839999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.860000</v>
+        <v>1268.8599999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.892000</v>
+        <v>-265.892</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>14805.390171</v>
+        <v>14805.390170999999</v>
       </c>
       <c r="L26" s="1">
-        <v>4.112608</v>
+        <v>4.1126079999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1303.760000</v>
+        <v>1303.76</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.685000</v>
+        <v>-202.685</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>14815.944044</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.115540</v>
+        <v>4.1155400000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.420000</v>
+        <v>1315.42</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.314000</v>
+        <v>-184.31399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>14826.397268</v>
+        <v>14826.397268000001</v>
       </c>
       <c r="V26" s="1">
-        <v>4.118444</v>
+        <v>4.1184440000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.040000</v>
+        <v>1328.04</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.811000</v>
+        <v>-170.81100000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>14836.898528</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.121361</v>
+        <v>4.1213610000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1344.780000</v>
+        <v>1344.78</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.754000</v>
+        <v>-168.75399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>14847.841762</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.124400</v>
+        <v>4.1243999999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>1357.670000</v>
+        <v>1357.67</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.903000</v>
+        <v>-178.90299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>14858.384228</v>
+        <v>14858.384228000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.127329</v>
+        <v>4.1273289999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1378.170000</v>
+        <v>1378.17</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.033000</v>
+        <v>-209.03299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>14869.405365</v>
+        <v>14869.405365000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.130390</v>
+        <v>4.1303900000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1399.670000</v>
+        <v>1399.67</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.196000</v>
+        <v>-253.196</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>14880.201287</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.133389</v>
+        <v>4.1333890000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1424.190000</v>
+        <v>1424.19</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.587000</v>
+        <v>-313.58699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>14891.161860</v>
+        <v>14891.16186</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.136434</v>
+        <v>4.1364340000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.033000</v>
+        <v>-366.03300000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>14902.200842</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.139500</v>
+        <v>4.1395</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.610000</v>
+        <v>1528.61</v>
       </c>
       <c r="BG26" s="1">
-        <v>-615.911000</v>
+        <v>-615.91099999999994</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>14913.049307</v>
+        <v>14913.049306999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.142514</v>
+        <v>4.1425140000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.970000</v>
+        <v>1682.97</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1064.170000</v>
+        <v>-1064.17</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>14923.306078</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.145363</v>
+        <v>4.1453629999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.780000</v>
+        <v>1977.78</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1841.540000</v>
+        <v>-1841.54</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>14934.044465</v>
+        <v>14934.044465000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.148346</v>
+        <v>4.1483460000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2366.260000</v>
+        <v>2366.2600000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2737.460000</v>
+        <v>-2737.46</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>14945.414753</v>
+        <v>14945.414752999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.151504</v>
+        <v>4.1515040000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.800000</v>
+        <v>2853.8</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3719.580000</v>
+        <v>-3719.58</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>14958.735312</v>
+        <v>14958.735312000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.155204</v>
+        <v>4.1552040000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>4300.610000</v>
+        <v>4300.6099999999997</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6086.590000</v>
+        <v>-6086.59</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>